--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$27</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="271">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -79,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -987,6 +993,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1092,66 +1113,68 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1213,3105 +1236,3123 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN27">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI26">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Lmdi-Organization</t>
+    <t>Organisasjon</t>
   </si>
   <si>
     <t>Status</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>TODO</t>
+    <t>TODO #4</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -472,7 +472,7 @@
 </t>
   </si>
   <si>
-    <t>Identifies this organization  across multiple systems</t>
+    <t>Unik identifikasjon av behandlingsenhet / avdeling / intitusjon</t>
   </si>
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
@@ -539,7 +539,7 @@
 </t>
   </si>
   <si>
-    <t>Kind of organization</t>
+    <t>Organisatorisk nivå / betegnelse</t>
   </si>
   <si>
     <t>The kind(s) of organization that this is.</t>
@@ -581,10 +581,10 @@
 </t>
   </si>
   <si>
-    <t>Name used for the organization</t>
-  </si>
-  <si>
-    <t>A name associated with the organization.</t>
+    <t>Navn på organisasjonsenhet</t>
+  </si>
+  <si>
+    <t>Eks. avdelingsnavn / institsjonsnavn / org navn</t>
   </si>
   <si>
     <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
@@ -2631,7 +2631,7 @@
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>77</v>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23</t>
+    <t>2024-05-27</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>TODO #4</t>
+    <t xml:space="preserve">Organisasjon eller organisasjonsenhet. </t>
   </si>
   <si>
     <t>Purpose</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$43</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="384">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27</t>
+    <t>2024-06-05</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -690,6 +690,371 @@
     <t>./PrimaryAddress and ./OtherAddresses</t>
   </si>
   <si>
+    <t>Organization.address.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Organization.address.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./AddressPurpose</t>
+  </si>
+  <si>
+    <t>Organization.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Organization.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Organization.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>./StreetAddress (newline delimitted)</t>
+  </si>
+  <si>
+    <t>Organization.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>./Jurisdiction</t>
+  </si>
+  <si>
+    <t>Organization.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>Organization.address.district.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Organization.address.district.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Organization.address.district.extension:municipalitycode</t>
+  </si>
+  <si>
+    <t>municipalitycode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/no-basis-municipalitycode}
+</t>
+  </si>
+  <si>
+    <t>Coded value for municipality/county Norwegian kommune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Organization.address.district.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>1048576</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>Organization.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>./Region</t>
+  </si>
+  <si>
+    <t>Organization.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>./PostalIdentificationCode</t>
+  </si>
+  <si>
+    <t>Organization.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>./Country</t>
+  </si>
+  <si>
+    <t>Organization.address.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
     <t>Organization.partOf</t>
   </si>
   <si>
@@ -734,22 +1099,7 @@
     <t>Organization.contact.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Organization.contact.modifierExtension</t>
@@ -1184,7 +1534,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1193,9 +1543,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.37890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.7109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1203,7 +1553,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="23.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1212,23 +1562,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.10546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.51171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="50.96875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
@@ -3217,21 +3567,19 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3279,7 +3627,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3291,16 +3639,16 @@
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3308,14 +3656,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3334,20 +3682,18 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>222</v>
+        <v>134</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3383,19 +3729,19 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3407,13 +3753,13 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3424,10 +3770,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3444,22 +3790,26 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3471,7 +3821,7 @@
         <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>77</v>
@@ -3483,13 +3833,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3507,7 +3857,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3519,16 +3869,16 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3536,21 +3886,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3559,19 +3909,19 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3585,7 +3935,7 @@
         <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>77</v>
@@ -3597,13 +3947,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -3621,25 +3971,25 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3650,45 +4000,45 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3701,7 +4051,7 @@
         <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>77</v>
@@ -3737,25 +4087,25 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3766,10 +4116,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3780,7 +4130,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -3789,21 +4139,19 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -3815,7 +4163,7 @@
         <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>77</v>
@@ -3827,13 +4175,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -3851,13 +4199,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -3866,13 +4214,13 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -3880,14 +4228,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3903,21 +4251,19 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>251</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -3929,7 +4275,7 @@
         <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>77</v>
@@ -3965,7 +4311,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3980,13 +4326,13 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -3994,21 +4340,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4017,21 +4363,21 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4043,7 +4389,7 @@
         <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>77</v>
@@ -4079,13 +4425,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4094,10 +4440,10 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4108,10 +4454,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4134,18 +4480,16 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4193,7 +4537,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4205,13 +4549,13 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4222,10 +4566,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4248,18 +4592,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4295,19 +4637,17 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4319,23 +4659,1843 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AK30" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AM27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AN34" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN27">
+  <autoFilter ref="A1:AN43">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4345,7 +6505,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI26">
+  <conditionalFormatting sqref="A2:AI42">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.6.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.6.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.6.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.5</t>
+    <t>0.6.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="465">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05</t>
+    <t>2024-06-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -472,13 +472,23 @@
 </t>
   </si>
   <si>
-    <t>Unik identifikasjon av behandlingsenhet / avdeling / intitusjon</t>
+    <t>Unik identifikasjon av enhet basert på organisasjonsnummer eller RESH-id.</t>
   </si>
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
+    <t>Skal baseres på no-basis-Organization.</t>
+  </si>
+  <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">org-1
@@ -497,6 +507,290 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>Organization.identifier:ENH</t>
+  </si>
+  <si>
+    <t>ENH</t>
+  </si>
+  <si>
+    <t>Organisasjonsnummer fra Enhetsregisteret</t>
+  </si>
+  <si>
+    <t>Organization.identifier:ENH.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.identifier:ENH.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:ENH.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier:ENH.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Organization.identifier:ENH.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.4.101</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Organization.identifier:ENH.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:ENH.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Organization.identifier:ENH.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH</t>
+  </si>
+  <si>
+    <t>RESH</t>
+  </si>
+  <si>
+    <t>D-nummer</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH.system</t>
+  </si>
+  <si>
+    <t>urn.oid:2.16.578.1.12.4.1.4.102</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:RESH.assigner</t>
+  </si>
+  <si>
     <t>Organization.active</t>
   </si>
   <si>
@@ -535,19 +829,13 @@
     <t>Organization.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Organisatorisk nivå / betegnelse</t>
   </si>
   <si>
     <t>The kind(s) of organization that this is.</t>
   </si>
   <si>
-    <t>Organizations can be corporations, wards, sections, clinical teams, government departments, etc. Note that code is generally a classifier of the type of organization; in many applications, codes are used to identity a particular organization (say, ward) as opposed to another of the same type - these are identifiers, not codes
-When considering if multiple types are appropriate, you should evaluate if child organizations would be a more appropriate use of the concept, as different types likely are in different sub-areas of the organization. This is most likely to be used where type values have orthogonal values, such as a religious, academic and medical center.
-We expect that some jurisdictions will profile this optionality to be a single cardinality.</t>
+    <t xml:space="preserve">Mangler gode kodeverk. De som er i no-basis-organization er ikke tilstrekkelig. </t>
   </si>
   <si>
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
@@ -568,26 +856,19 @@
     <t>.code</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
   </si>
   <si>
     <t>Organization.name</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Navn på organisasjonsenhet</t>
   </si>
   <si>
     <t>Eks. avdelingsnavn / institsjonsnavn / org navn</t>
   </si>
   <si>
-    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+    <t>Inkluderer helst hvis opplysningen finnes.</t>
   </si>
   <si>
     <t>Need to use the name as the label of the organization.</t>
@@ -693,34 +974,9 @@
     <t>Organization.address.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Organization.address.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Organization.address.use</t>
   </si>
   <si>
@@ -737,9 +993,6 @@
   </si>
   <si>
     <t>home</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The use of an address.</t>
@@ -1022,10 +1275,6 @@
   </si>
   <si>
     <t>Organization.address.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Time period when address was/is in use</t>
@@ -1052,20 +1301,16 @@
     <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part</t>
+    <t>Del av organisasjon</t>
   </si>
   <si>
     <t>The organization of which this organization forms a part.</t>
+  </si>
+  <si>
+    <t>Er det behov for nivåer, rekursjon? NB! Kan bare peke oppover.</t>
   </si>
   <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
@@ -1129,9 +1374,6 @@
   </si>
   <si>
     <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The purpose for which you would contact a contact party.</t>
@@ -1534,7 +1776,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN43"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1567,8 +1809,8 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.10546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.51171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1579,7 +1821,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.96875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2766,9 +3008,11 @@
       <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -2805,16 +3049,14 @@
         <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>144</v>
@@ -2826,32 +3068,34 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2866,32 +3110,28 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2935,39 +3175,39 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2978,32 +3218,28 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3027,13 +3263,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -3057,69 +3293,67 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3155,40 +3389,40 @@
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3196,10 +3430,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3210,31 +3444,31 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3259,13 +3493,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3283,13 +3517,13 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
@@ -3298,10 +3532,10 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3312,10 +3546,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3326,7 +3560,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3335,22 +3569,22 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3375,13 +3609,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3399,28 +3633,28 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3428,10 +3662,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3439,34 +3673,34 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3476,10 +3710,10 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>77</v>
@@ -3515,28 +3749,28 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3544,10 +3778,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3555,7 +3789,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>87</v>
@@ -3567,18 +3801,20 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3591,7 +3827,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -3627,7 +3863,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3639,16 +3875,16 @@
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3656,21 +3892,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3679,20 +3915,18 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3729,40 +3963,40 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3770,10 +4004,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3790,26 +4024,24 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3821,7 +4053,7 @@
         <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>77</v>
@@ -3833,13 +4065,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3857,7 +4089,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3872,13 +4104,13 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3886,12 +4118,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3912,18 +4146,18 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3935,7 +4169,7 @@
         <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>77</v>
@@ -3947,13 +4181,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -3971,39 +4205,39 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4023,23 +4257,19 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4051,7 +4281,7 @@
         <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>77</v>
@@ -4087,7 +4317,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4099,13 +4329,13 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4116,14 +4346,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4139,18 +4369,20 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4163,7 +4395,7 @@
         <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>77</v>
@@ -4187,19 +4419,19 @@
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4211,16 +4443,16 @@
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4228,14 +4460,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4248,22 +4480,26 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4275,7 +4511,7 @@
         <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>77</v>
@@ -4287,13 +4523,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4311,7 +4547,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4326,13 +4562,13 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4340,14 +4576,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4366,18 +4602,20 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4389,7 +4627,7 @@
         <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>77</v>
@@ -4401,13 +4639,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4425,7 +4663,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4440,10 +4678,10 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>280</v>
+        <v>184</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4454,10 +4692,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4465,7 +4703,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
@@ -4477,19 +4715,23 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4498,10 +4740,10 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>77</v>
@@ -4537,7 +4779,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4549,16 +4791,16 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4566,10 +4808,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4577,10 +4819,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4589,18 +4831,20 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4613,7 +4857,7 @@
         <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>77</v>
@@ -4637,38 +4881,40 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4676,14 +4922,12 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4701,16 +4945,16 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4761,28 +5005,28 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4790,10 +5034,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4813,18 +5057,20 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4846,7 +5092,7 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
         <v>77</v>
@@ -4873,7 +5119,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4885,16 +5131,16 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4902,14 +5148,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4922,26 +5168,32 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="R30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4985,7 +5237,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5000,38 +5252,38 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>77</v>
@@ -5040,16 +5292,20 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5061,7 +5317,7 @@
         <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>77</v>
@@ -5073,13 +5329,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5097,13 +5353,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5112,24 +5368,24 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5143,7 +5399,7 @@
         <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>77</v>
@@ -5152,18 +5408,20 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5211,7 +5469,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5220,19 +5478,19 @@
         <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5240,10 +5498,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5254,7 +5512,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5263,20 +5521,22 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>323</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5289,7 +5549,7 @@
         <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>77</v>
@@ -5325,13 +5585,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5340,13 +5600,13 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5354,10 +5614,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5368,7 +5628,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5377,20 +5637,22 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5439,28 +5701,28 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>161</v>
+        <v>293</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>176</v>
+        <v>295</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5468,10 +5730,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5485,7 +5747,7 @@
         <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>77</v>
@@ -5494,19 +5756,19 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5555,7 +5817,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5564,19 +5826,19 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>303</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5584,10 +5846,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5610,13 +5872,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5667,7 +5929,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5685,7 +5947,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5696,10 +5958,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5728,7 +5990,7 @@
         <v>134</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>136</v>
@@ -5769,19 +6031,19 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5799,7 +6061,7 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5810,21 +6072,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5836,19 +6098,19 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>142</v>
+        <v>313</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5861,7 +6123,7 @@
         <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>77</v>
@@ -5873,13 +6135,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -5897,28 +6159,28 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>130</v>
+        <v>319</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -5926,10 +6188,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5949,21 +6211,21 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -5975,7 +6237,7 @@
         <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>77</v>
@@ -5987,13 +6249,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6011,7 +6273,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6026,10 +6288,10 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6040,10 +6302,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6063,20 +6325,22 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>361</v>
+        <v>162</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6089,7 +6353,7 @@
         <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>77</v>
@@ -6125,7 +6389,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6140,10 +6404,10 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6154,10 +6418,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6177,21 +6441,19 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6203,7 +6465,7 @@
         <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>77</v>
@@ -6239,7 +6501,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6254,13 +6516,13 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6268,14 +6530,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6291,21 +6553,19 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>376</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6317,7 +6577,7 @@
         <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>77</v>
@@ -6353,7 +6613,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6368,13 +6628,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6382,21 +6642,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6405,21 +6665,21 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>380</v>
+        <v>162</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6431,7 +6691,7 @@
         <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>77</v>
@@ -6467,13 +6727,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6482,20 +6742,2064 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>176</v>
+        <v>364</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AC45" s="2"/>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN43">
+  <autoFilter ref="A1:AN61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6505,7 +8809,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI42">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.6</t>
+    <t>0.6.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.7</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.4</t>
+    <t>0.8.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -761,7 +761,7 @@
     <t>RESH</t>
   </si>
   <si>
-    <t>D-nummer</t>
+    <t>Id fra Register for enheter i spesialisthelsetjenesten (RESH)</t>
   </si>
   <si>
     <t>Organization.identifier:RESH.id</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -1022,7 +1022,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12</t>
+    <t>2025-01-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Organisasjon eller organisasjonsenhet. </t>
+    <t>Profil for organisasjoner i norsk helse- og omsorgstjeneste</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -472,13 +472,13 @@
 </t>
   </si>
   <si>
-    <t>Unik identifikasjon av enhet basert på organisasjonsnummer eller RESH-id.</t>
+    <t>Organisasjonsidentifikatorer (ENH/RESH)</t>
   </si>
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
-    <t>Skal baseres på no-basis-Organization.</t>
+    <t>Identifikatorer skal angis på laveste mulige organisatoriske nivå. For eksempel organisasjonsnummer for sykehjemmet fremfor kommunen der det finnes.</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
@@ -516,6 +516,9 @@
     <t>Organisasjonsnummer fra Enhetsregisteret</t>
   </si>
   <si>
+    <t>Identifikatorer skal angis på laveste relevante virksomhetsnivå i henhold til SSBs retningslinjer. For kommunale tjenester betyr dette på institusjonsnivå (f.eks sykehjem) der egen organisatorisk enhet er etablert, ikke på overordnet kommunenivå.</t>
+  </si>
+  <si>
     <t>Organization.identifier:ENH.id</t>
   </si>
   <si>
@@ -672,7 +675,7 @@
     <t>Organization.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>Organisasjonsnummer</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -761,7 +764,10 @@
     <t>RESH</t>
   </si>
   <si>
-    <t>Id fra Register for enheter i spesialisthelsetjenesten (RESH)</t>
+    <t>ID fra Register for enheter i spesialisthelsetjenesten</t>
+  </si>
+  <si>
+    <t>Det nivået aktiviteten har skjedd på.</t>
   </si>
   <si>
     <t>Organization.identifier:RESH.id</t>
@@ -779,10 +785,13 @@
     <t>Organization.identifier:RESH.system</t>
   </si>
   <si>
-    <t>urn.oid:2.16.578.1.12.4.1.4.102</t>
+    <t>urn:oid:2.16.578.1.12.4.1.4.102</t>
   </si>
   <si>
     <t>Organization.identifier:RESH.value</t>
+  </si>
+  <si>
+    <t>RESH-ID</t>
   </si>
   <si>
     <t>Organization.identifier:RESH.period</t>
@@ -829,25 +838,21 @@
     <t>Organization.type</t>
   </si>
   <si>
-    <t>Organisatorisk nivå / betegnelse</t>
-  </si>
-  <si>
-    <t>The kind(s) of organization that this is.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mangler gode kodeverk. De som er i no-basis-organization er ikke tilstrekkelig. </t>
+    <t>Organisasjonstype</t>
+  </si>
+  <si>
+    <t>Type organisasjon (f.eks. sykehus, avdeling, klinikk)</t>
+  </si>
+  <si>
+    <t>Organizations can be corporations, wards, sections, clinical teams, government departments, etc. Note that code is generally a classifier of the type of organization; in many applications, codes are used to identity a particular organization (say, ward) as opposed to another of the same type - these are identifiers, not codes
+When considering if multiple types are appropriate, you should evaluate if child organizations would be a more appropriate use of the concept, as different types likely are in different sub-areas of the organization. This is most likely to be used where type values have orthogonal values, such as a religious, academic and medical center.
+We expect that some jurisdictions will profile this optionality to be a single cardinality.</t>
   </si>
   <si>
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Used to categorize the organization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+    <t>http://terminology.hl7.org/CodeSystem/organization-type</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -862,13 +867,13 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Navn på organisasjonsenhet</t>
-  </si>
-  <si>
-    <t>Eks. avdelingsnavn / institsjonsnavn / org navn</t>
-  </si>
-  <si>
-    <t>Inkluderer helst hvis opplysningen finnes.</t>
+    <t>Organisasjonsnavn</t>
+  </si>
+  <si>
+    <t>Offisielt navn på organisasjonen</t>
+  </si>
+  <si>
+    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
   </si>
   <si>
     <t>Need to use the name as the label of the organization.</t>
@@ -1025,6 +1030,9 @@
     <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
+    <t>physical</t>
+  </si>
+  <si>
     <t>both</t>
   </si>
   <si>
@@ -1171,8 +1179,11 @@
     <t>municipalitycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/noBasisMunicipalitycode}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/no-basis-municipalitycode}
 </t>
+  </si>
+  <si>
+    <t>no-basis-municipalitycode</t>
   </si>
   <si>
     <t>Coded value for municipality/county Norwegian kommune</t>
@@ -1304,13 +1315,14 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t>Del av organisasjon</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part.</t>
-  </si>
-  <si>
-    <t>Er det behov for nivåer, rekursjon? NB! Kan bare peke oppover.</t>
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-organization)
+</t>
+  </si>
+  <si>
+    <t>Overordnet organisasjon</t>
+  </si>
+  <si>
+    <t>Organisasjonen som denne organisasjonen er en del av</t>
   </si>
   <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
@@ -1803,7 +1815,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.07421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1818,7 +1830,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.71484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2538,7 +2550,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -2993,13 +3005,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>77</v>
@@ -3132,7 +3144,9 @@
       <c r="M12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>149</v>
       </c>
@@ -3212,10 +3226,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3238,13 +3252,13 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3295,7 +3309,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3313,7 +3327,7 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3324,10 +3338,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3356,7 +3370,7 @@
         <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>136</v>
@@ -3397,19 +3411,19 @@
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3427,7 +3441,7 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3438,10 +3452,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3467,16 +3481,16 @@
         <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3501,13 +3515,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3525,7 +3539,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3543,7 +3557,7 @@
         <v>130</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3554,10 +3568,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3580,19 +3594,19 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3617,13 +3631,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3641,7 +3655,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3656,10 +3670,10 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3670,10 +3684,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3699,29 +3713,29 @@
         <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>77</v>
@@ -3757,7 +3771,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3772,13 +3786,13 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3786,10 +3800,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3812,16 +3826,16 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3835,7 +3849,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -3871,7 +3885,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3886,13 +3900,13 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3900,10 +3914,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3926,13 +3940,13 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3983,7 +3997,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3998,13 +4012,13 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4012,10 +4026,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4038,16 +4052,16 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4097,7 +4111,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4112,13 +4126,13 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4126,13 +4140,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>144</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>77</v>
@@ -4157,12 +4171,14 @@
         <v>145</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>149</v>
       </c>
@@ -4242,10 +4258,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4268,13 +4284,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4325,7 +4341,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4343,7 +4359,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4354,10 +4370,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4386,7 +4402,7 @@
         <v>134</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>136</v>
@@ -4427,19 +4443,19 @@
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4457,7 +4473,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4468,10 +4484,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4497,16 +4513,16 @@
         <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4531,13 +4547,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4555,7 +4571,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4573,7 +4589,7 @@
         <v>130</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4584,10 +4600,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4610,19 +4626,19 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4647,13 +4663,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4671,7 +4687,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4686,10 +4702,10 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4700,10 +4716,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4729,29 +4745,29 @@
         <v>101</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>77</v>
@@ -4787,7 +4803,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4802,13 +4818,13 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4816,10 +4832,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4842,16 +4858,16 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4865,7 +4881,7 @@
         <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>77</v>
@@ -4901,7 +4917,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4916,13 +4932,13 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4930,10 +4946,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4956,13 +4972,13 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5013,7 +5029,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5028,13 +5044,13 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5042,10 +5058,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5068,16 +5084,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5127,7 +5143,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5142,13 +5158,13 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5156,10 +5172,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5170,7 +5186,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5182,70 +5198,70 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5260,24 +5276,24 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5285,13 +5301,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>77</v>
@@ -5300,19 +5316,19 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5337,13 +5353,11 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5361,7 +5375,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5376,24 +5390,24 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5401,7 +5415,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>87</v>
@@ -5416,19 +5430,19 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5477,7 +5491,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5492,13 +5506,13 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5506,10 +5520,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5532,19 +5546,19 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5593,7 +5607,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5611,7 +5625,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5622,10 +5636,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5636,7 +5650,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5648,19 +5662,19 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5709,7 +5723,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5718,19 +5732,19 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5738,10 +5752,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5764,19 +5778,19 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5825,7 +5839,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5834,19 +5848,19 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5854,10 +5868,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5880,13 +5894,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5937,7 +5951,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5955,7 +5969,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5966,10 +5980,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5998,7 +6012,7 @@
         <v>134</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>136</v>
@@ -6039,19 +6053,19 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6069,7 +6083,7 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6080,10 +6094,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6109,16 +6123,16 @@
         <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6131,7 +6145,7 @@
         <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>77</v>
@@ -6143,13 +6157,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6167,7 +6181,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6182,13 +6196,13 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6196,10 +6210,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6225,13 +6239,13 @@
         <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6242,10 +6256,10 @@
         <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>77</v>
@@ -6257,13 +6271,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6281,7 +6295,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6296,10 +6310,10 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6310,10 +6324,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6336,19 +6350,19 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6361,7 +6375,7 @@
         <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>77</v>
@@ -6397,7 +6411,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6412,10 +6426,10 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6426,10 +6440,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6452,13 +6466,13 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6473,7 +6487,7 @@
         <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>77</v>
@@ -6509,7 +6523,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6524,13 +6538,13 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6538,14 +6552,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6564,13 +6578,13 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6585,7 +6599,7 @@
         <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>77</v>
@@ -6621,7 +6635,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6636,13 +6650,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6650,14 +6664,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6667,7 +6681,7 @@
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>77</v>
@@ -6676,16 +6690,16 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6699,7 +6713,7 @@
         <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>77</v>
@@ -6735,7 +6749,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6750,10 +6764,10 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6764,10 +6778,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6790,13 +6804,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6847,7 +6861,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6876,10 +6890,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6905,10 +6919,10 @@
         <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6947,17 +6961,17 @@
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6986,13 +7000,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
@@ -7014,13 +7028,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7071,7 +7085,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7080,7 +7094,7 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>138</v>
@@ -7100,10 +7114,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7126,13 +7140,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7156,7 +7170,7 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>77</v>
@@ -7183,7 +7197,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7212,14 +7226,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7238,13 +7252,13 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7295,7 +7309,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7310,13 +7324,13 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7324,14 +7338,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7350,13 +7364,13 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7371,7 +7385,7 @@
         <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>77</v>
@@ -7407,7 +7421,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7422,13 +7436,13 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7436,10 +7450,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7462,16 +7476,16 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7521,7 +7535,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7536,13 +7550,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7550,10 +7564,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7576,17 +7590,17 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7599,7 +7613,7 @@
         <v>77</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>77</v>
@@ -7635,7 +7649,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7650,13 +7664,13 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7664,10 +7678,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7690,19 +7704,17 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>230</v>
+        <v>418</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7751,7 +7763,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7766,13 +7778,13 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7780,10 +7792,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7806,19 +7818,19 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7867,7 +7879,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7885,7 +7897,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7896,10 +7908,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7922,13 +7934,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7979,7 +7991,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7997,7 +8009,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8008,10 +8020,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8040,7 +8052,7 @@
         <v>134</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>136</v>
@@ -8093,7 +8105,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8111,7 +8123,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8122,14 +8134,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8151,10 +8163,10 @@
         <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>136</v>
@@ -8209,7 +8221,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8238,10 +8250,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8264,17 +8276,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8299,13 +8311,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8323,7 +8335,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8341,7 +8353,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8352,10 +8364,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8378,17 +8390,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8437,7 +8449,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8452,10 +8464,10 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8466,10 +8478,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8492,17 +8504,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8551,7 +8563,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8566,10 +8578,10 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8580,10 +8592,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8606,17 +8618,17 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8665,7 +8677,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8680,10 +8692,10 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8694,10 +8706,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8720,17 +8732,17 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8779,7 +8791,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8797,7 +8809,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="472">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27</t>
+    <t>2025-02-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil for organisasjoner i norsk helse- og omsorgstjeneste</t>
+    <t>Organisasjoner i norsk helse- og omsorgstjeneste, som sykehus og sykehjem, og avdelinger/poster under disse.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -947,7 +947,7 @@
 </t>
   </si>
   <si>
-    <t>An address for the organization</t>
+    <t>Gjeldende fysisk adresse</t>
   </si>
   <si>
     <t>An address for the organization.</t>
@@ -982,6 +982,22 @@
     <t>Organization.address.extension</t>
   </si>
   <si>
+    <t>Organization.address.extension:urbanDistrict</t>
+  </si>
+  <si>
+    <t>urbanDistrict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-urban-district}
+</t>
+  </si>
+  <si>
+    <t>Bydel</t>
+  </si>
+  <si>
+    <t>Information about Norwegian urban district (bydel)</t>
+  </si>
+  <si>
     <t>Organization.address.use</t>
   </si>
   <si>
@@ -1179,11 +1195,8 @@
     <t>municipalitycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/no-basis-municipalitycode}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-municipalitycode}
 </t>
-  </si>
-  <si>
-    <t>no-basis-municipalitycode</t>
   </si>
   <si>
     <t>Coded value for municipality/county Norwegian kommune</t>
@@ -1215,7 +1228,7 @@
 Territory</t>
   </si>
   <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
+    <t>Fylkesnavn</t>
   </si>
   <si>
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
@@ -1796,7 +1809,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1815,7 +1828,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.5078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.82421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6097,9 +6110,11 @@
         <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6114,26 +6129,22 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O38" t="s" s="2">
         <v>314</v>
       </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6145,7 +6156,7 @@
         <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>77</v>
@@ -6157,13 +6168,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6181,28 +6192,28 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>318</v>
+        <v>174</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6210,10 +6221,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6230,7 +6241,7 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>88</v>
@@ -6239,15 +6250,17 @@
         <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6256,10 +6269,10 @@
         <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>77</v>
@@ -6274,10 +6287,10 @@
         <v>181</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6295,7 +6308,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6310,13 +6323,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6324,10 +6337,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6350,20 +6363,18 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6372,10 +6383,10 @@
         <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>77</v>
@@ -6387,13 +6398,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6411,7 +6422,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6426,10 +6437,10 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6440,10 +6451,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6454,7 +6465,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6469,13 +6480,17 @@
         <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6487,7 +6502,7 @@
         <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>77</v>
@@ -6523,13 +6538,13 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6538,13 +6553,13 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6552,21 +6567,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6581,10 +6596,10 @@
         <v>163</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6599,7 +6614,7 @@
         <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>77</v>
@@ -6635,13 +6650,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6650,13 +6665,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6664,14 +6679,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6681,7 +6696,7 @@
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>77</v>
@@ -6693,14 +6708,12 @@
         <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6713,7 +6726,7 @@
         <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>77</v>
@@ -6749,7 +6762,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6764,13 +6777,13 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6778,14 +6791,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6801,18 +6814,20 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6825,7 +6840,7 @@
         <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>77</v>
@@ -6861,7 +6876,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>166</v>
+        <v>369</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6873,13 +6888,13 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6890,10 +6905,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6904,7 +6919,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6916,13 +6931,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6961,29 +6976,31 @@
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -7000,14 +7017,12 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7016,7 +7031,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7028,7 +7043,7 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>375</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>376</v>
@@ -7073,16 +7088,14 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>174</v>
@@ -7094,7 +7107,7 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>138</v>
@@ -7114,12 +7127,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7140,10 +7155,10 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>163</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>381</v>
@@ -7170,46 +7185,46 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="X47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7226,14 +7241,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7249,16 +7264,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7282,7 +7297,7 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="X48" t="s" s="2">
         <v>77</v>
@@ -7309,7 +7324,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7321,16 +7336,16 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7338,14 +7353,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7367,10 +7382,10 @@
         <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7385,7 +7400,7 @@
         <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>77</v>
@@ -7421,7 +7436,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7436,13 +7451,13 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7450,21 +7465,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7479,14 +7494,12 @@
         <v>163</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7499,7 +7512,7 @@
         <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>77</v>
@@ -7535,7 +7548,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7550,13 +7563,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7564,10 +7577,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7590,18 +7603,18 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7613,7 +7626,7 @@
         <v>77</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>77</v>
@@ -7649,7 +7662,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7664,13 +7677,13 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>228</v>
+        <v>412</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7678,10 +7691,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7695,7 +7708,7 @@
         <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>77</v>
@@ -7704,17 +7717,17 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>418</v>
+        <v>222</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7727,7 +7740,7 @@
         <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>77</v>
@@ -7763,7 +7776,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7778,13 +7791,13 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>260</v>
+        <v>419</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7792,10 +7805,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7806,31 +7819,29 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7879,13 +7890,13 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
@@ -7894,13 +7905,13 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7908,10 +7919,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7922,7 +7933,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7934,16 +7945,20 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>163</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>164</v>
+        <v>429</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7991,25 +8006,25 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>166</v>
+        <v>427</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>167</v>
+        <v>433</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8020,21 +8035,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8046,17 +8061,15 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8105,19 +8118,19 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8134,14 +8147,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>433</v>
+        <v>132</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8154,26 +8167,24 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>434</v>
+        <v>134</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>435</v>
+        <v>170</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8221,7 +8232,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>436</v>
+        <v>174</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8239,7 +8250,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8250,33 +8261,33 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>438</v>
@@ -8284,9 +8295,11 @@
       <c r="M57" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>440</v>
+        <v>142</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8311,13 +8324,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>442</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8335,25 +8348,25 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>443</v>
+        <v>130</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8364,10 +8377,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8390,17 +8403,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>445</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8425,13 +8438,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8449,7 +8462,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8464,10 +8477,10 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>449</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8478,10 +8491,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8492,7 +8505,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8504,17 +8517,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>287</v>
+        <v>449</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8563,13 +8576,13 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
@@ -8578,10 +8591,10 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8592,10 +8605,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8606,7 +8619,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8618,17 +8631,17 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8677,13 +8690,13 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
@@ -8692,10 +8705,10 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8706,10 +8719,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8720,7 +8733,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8732,17 +8745,17 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>464</v>
+        <v>298</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8791,13 +8804,13 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
@@ -8806,20 +8819,134 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AM61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AM62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN61">
+  <autoFilter ref="A1:AN62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8829,7 +8956,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-27</t>
+    <t>2025-01-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Organisasjoner i norsk helse- og omsorgstjeneste, som sykehus og sykehjem, og avdelinger/poster under disse.</t>
+    <t>Profil for organisasjoner i norsk helse- og omsorgstjeneste</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -947,7 +947,7 @@
 </t>
   </si>
   <si>
-    <t>Gjeldende fysisk adresse</t>
+    <t>An address for the organization</t>
   </si>
   <si>
     <t>An address for the organization.</t>
@@ -982,22 +982,6 @@
     <t>Organization.address.extension</t>
   </si>
   <si>
-    <t>Organization.address.extension:urbanDistrict</t>
-  </si>
-  <si>
-    <t>urbanDistrict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-urban-district}
-</t>
-  </si>
-  <si>
-    <t>Bydel</t>
-  </si>
-  <si>
-    <t>Information about Norwegian urban district (bydel)</t>
-  </si>
-  <si>
     <t>Organization.address.use</t>
   </si>
   <si>
@@ -1195,8 +1179,11 @@
     <t>municipalitycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-municipalitycode}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/no-basis-municipalitycode}
 </t>
+  </si>
+  <si>
+    <t>no-basis-municipalitycode</t>
   </si>
   <si>
     <t>Coded value for municipality/county Norwegian kommune</t>
@@ -1228,7 +1215,7 @@
 Territory</t>
   </si>
   <si>
-    <t>Fylkesnavn</t>
+    <t>Sub-unit of country (abbreviations ok)</t>
   </si>
   <si>
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
@@ -1809,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1828,7 +1815,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.82421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6110,11 +6097,9 @@
         <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6129,22 +6114,26 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6156,7 +6145,7 @@
         <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>77</v>
@@ -6168,13 +6157,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6192,28 +6181,28 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>174</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6221,10 +6210,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6241,7 +6230,7 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>88</v>
@@ -6250,17 +6239,15 @@
         <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6269,10 +6256,10 @@
         <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>77</v>
@@ -6287,10 +6274,10 @@
         <v>181</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6308,7 +6295,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6323,13 +6310,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6337,10 +6324,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6363,18 +6350,20 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6383,10 +6372,10 @@
         <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>77</v>
@@ -6398,13 +6387,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6422,7 +6411,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6437,10 +6426,10 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6451,10 +6440,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6465,7 +6454,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6480,17 +6469,13 @@
         <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6502,7 +6487,7 @@
         <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>77</v>
@@ -6538,13 +6523,13 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6553,13 +6538,13 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6567,21 +6552,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6596,10 +6581,10 @@
         <v>163</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6614,7 +6599,7 @@
         <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>77</v>
@@ -6650,13 +6635,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6665,13 +6650,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6679,14 +6664,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6696,7 +6681,7 @@
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>77</v>
@@ -6708,12 +6693,14 @@
         <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6726,7 +6713,7 @@
         <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>77</v>
@@ -6762,7 +6749,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6777,13 +6764,13 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6791,14 +6778,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6814,20 +6801,18 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6840,7 +6825,7 @@
         <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>77</v>
@@ -6876,7 +6861,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>369</v>
+        <v>166</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6888,13 +6873,13 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6905,10 +6890,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6919,7 +6904,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6931,13 +6916,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6976,31 +6961,29 @@
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -7017,12 +7000,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7031,7 +7016,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7043,7 +7028,7 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>375</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>376</v>
@@ -7088,14 +7073,16 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>174</v>
@@ -7107,7 +7094,7 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>138</v>
@@ -7127,14 +7114,12 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C47" t="s" s="2">
         <v>379</v>
       </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7155,10 +7140,10 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>381</v>
@@ -7185,7 +7170,7 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>77</v>
@@ -7212,19 +7197,19 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>174</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7241,14 +7226,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7264,16 +7249,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7297,7 +7282,7 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
         <v>77</v>
@@ -7324,7 +7309,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7336,16 +7321,16 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7353,14 +7338,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7382,10 +7367,10 @@
         <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7400,7 +7385,7 @@
         <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>77</v>
@@ -7436,7 +7421,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7451,13 +7436,13 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7465,21 +7450,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7494,12 +7479,14 @@
         <v>163</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7512,7 +7499,7 @@
         <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>77</v>
@@ -7548,7 +7535,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7563,13 +7550,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7577,10 +7564,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7603,18 +7590,18 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7626,7 +7613,7 @@
         <v>77</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>77</v>
@@ -7662,7 +7649,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7677,13 +7664,13 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>412</v>
+        <v>228</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7691,10 +7678,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7708,7 +7695,7 @@
         <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>77</v>
@@ -7717,17 +7704,17 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>222</v>
+        <v>418</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7740,43 +7727,43 @@
         <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7791,13 +7778,13 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>419</v>
+        <v>260</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7805,10 +7792,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7819,29 +7806,31 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7890,13 +7879,13 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
@@ -7905,13 +7894,13 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7919,10 +7908,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7933,7 +7922,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7945,20 +7934,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>428</v>
+        <v>163</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>429</v>
+        <v>164</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8006,25 +7991,25 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>427</v>
+        <v>166</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>433</v>
+        <v>167</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8035,21 +8020,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8061,15 +8046,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8118,19 +8105,19 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8147,14 +8134,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>132</v>
+        <v>433</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8167,24 +8154,26 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>134</v>
+        <v>434</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>170</v>
+        <v>435</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8232,7 +8221,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>174</v>
+        <v>436</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8250,7 +8239,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8261,33 +8250,33 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>438</v>
@@ -8295,11 +8284,9 @@
       <c r="M57" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>142</v>
+        <v>440</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8324,13 +8311,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>441</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>77</v>
+        <v>442</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8348,25 +8335,25 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>130</v>
+        <v>443</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8377,10 +8364,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8403,17 +8390,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>188</v>
+        <v>445</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8438,13 +8425,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8462,7 +8449,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8477,10 +8464,10 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8491,10 +8478,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8505,7 +8492,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8517,17 +8504,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>449</v>
+        <v>287</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8576,13 +8563,13 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
@@ -8591,10 +8578,10 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8605,10 +8592,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8619,7 +8606,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8631,17 +8618,17 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8690,13 +8677,13 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
@@ -8705,10 +8692,10 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8719,10 +8706,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8733,7 +8720,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8745,17 +8732,17 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>298</v>
+        <v>464</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8804,13 +8791,13 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
@@ -8819,134 +8806,20 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>466</v>
+        <v>167</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN62" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN62">
+  <autoFilter ref="A1:AN61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8956,7 +8829,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="472">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,16 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI)</t>
+    <t>Folkehelseinstituttet</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
+    <t>Folkehelseinstituttet (https://www.fhi.no)</t>
+  </si>
+  <si>
+    <t>Legemiddelregisteret (legemiddelregisteret@fhi.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1627,7 +1630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1717,25 +1720,27 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -1747,48 +1752,54 @@
       <c r="A15" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B20" t="s" s="2">
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>35</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7088 +1861,7088 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="B38" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="C38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -84,7 +84,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Organisasjoner i norsk helse- og omsorgstjeneste, som sykehus og sykehjem, og avdelinger/poster under disse.</t>
+    <t xml:space="preserve">Organisasjoner i norsk helse- og omsorgstjeneste, som post, avdeling, klinikk, sykehus og sykehjem. 
+Denne profilen av Organization benyttes for å beskrive helseinstitusjoner og skal representere organisasjonen på lavest mulig nivå i organisasjonshierarkiet (f.eks. en avdeling eller klinikk eller post).
+For organisasjonen som er del av en større organisasjon, skal dette angis ved hjelp av partOf-relasjonen. Alle “organisasjonshierarki” skal inkludere minst et organisasjonsnummer fra Enhetsregisteret (identifier:ENH) </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -472,13 +474,13 @@
 </t>
   </si>
   <si>
-    <t>Organisasjonsidentifikatorer (ENH/RESH)</t>
+    <t>ID fra Nasjonalt register for enheter i spesialisthelsetjenesten (RESH) eller Organisasjonsnummeret i Enhetsregister</t>
   </si>
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
-    <t>Identifikatorer skal angis på laveste mulige organisatoriske nivå. For eksempel organisasjonsnummer for sykehjemmet fremfor kommunen der det finnes.</t>
+    <t>Der aktiviteten har skjedd.</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
@@ -513,7 +515,7 @@
     <t>ENH</t>
   </si>
   <si>
-    <t>Organisasjonsnummer fra Enhetsregisteret</t>
+    <t>Organisasjonsnummer fra Enhetsregisteret (ENH)</t>
   </si>
   <si>
     <t>Identifikatorer skal angis på laveste relevante virksomhetsnivå i henhold til SSBs retningslinjer. For kommunale tjenester betyr dette på institusjonsnivå (f.eks sykehjem) der egen organisatorisk enhet er etablert, ikke på overordnet kommunenivå.</t>
@@ -764,7 +766,7 @@
     <t>RESH</t>
   </si>
   <si>
-    <t>ID fra Register for enheter i spesialisthelsetjenesten</t>
+    <t>ID fra Register for enheter i spesialisthelsetjenesten (RESH)</t>
   </si>
   <si>
     <t>Det nivået aktiviteten har skjedd på.</t>
@@ -873,7 +875,7 @@
     <t>Offisielt navn på organisasjonen</t>
   </si>
   <si>
-    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+    <t>Kan være navn på post, avdelingsnavn, klinikknavn, sykehusnavn eller sykehjemsnavn</t>
   </si>
   <si>
     <t>Need to use the name as the label of the organization.</t>

--- a/currentbuild/StructureDefinition-lmdi-organization.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-27</t>
+    <t>2025-03-10</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -994,7 +994,7 @@
 </t>
   </si>
   <si>
-    <t>Bydel</t>
+    <t>Kodet verdi for bydel</t>
   </si>
   <si>
     <t>Information about Norwegian urban district (bydel)</t>
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t>District name (aka county)</t>
+    <t>Kommune</t>
   </si>
   <si>
     <t>The name of the administrative area (county).</t>
@@ -1201,7 +1201,7 @@
 </t>
   </si>
   <si>
-    <t>Coded value for municipality/county Norwegian kommune</t>
+    <t>Kodet verdi for kommune</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1334,10 +1334,7 @@
 </t>
   </si>
   <si>
-    <t>Overordnet organisasjon</t>
-  </si>
-  <si>
-    <t>Organisasjonen som denne organisasjonen er en del av</t>
+    <t>Organisasjonen er del av (overordnet organisasjon)</t>
   </si>
   <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
@@ -7257,7 +7254,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7839,11 +7836,11 @@
         <v>423</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7910,7 +7907,7 @@
         <v>260</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>167</v>
@@ -7921,10 +7918,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7947,19 +7944,19 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8008,7 +8005,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8026,7 +8023,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8037,10 +8034,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8149,10 +8146,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8263,14 +8260,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8292,10 +8289,10 @@
         <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>136</v>
@@ -8350,7 +8347,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8379,10 +8376,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8408,14 +8405,14 @@
         <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8443,11 +8440,11 @@
         <v>193</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8464,7 +8461,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8482,7 +8479,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8493,10 +8490,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8519,17 +8516,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8578,7 +8575,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8593,10 +8590,10 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8607,10 +8604,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8636,14 +8633,14 @@
         <v>287</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8692,7 +8689,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8707,10 +8704,10 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8721,10 +8718,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8750,14 +8747,14 @@
         <v>298</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8806,7 +8803,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8821,10 +8818,10 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8835,10 +8832,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8861,17 +8858,17 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8920,7 +8917,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
